--- a/ProgrammesUtilisesActuellement/ProgrammesUtilisesActuellementV2.xlsx
+++ b/ProgrammesUtilisesActuellement/ProgrammesUtilisesActuellementV2.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Marina" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marina!$A$1:$E$51</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
   <si>
     <t>Nom de Program</t>
   </si>
@@ -178,18 +181,29 @@
   </si>
   <si>
     <t>Marina Tyurina</t>
+  </si>
+  <si>
+    <t>MenuModule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +243,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -567,47 +593,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1045,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,25 +1100,25 @@
     <col min="4" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
@@ -1084,7 +1127,9 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>20</v>
@@ -1097,7 +1142,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+      <c r="A4" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>22</v>
@@ -1110,7 +1157,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+      <c r="A5" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>24</v>
@@ -1137,7 +1186,7 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="14"/>
@@ -1146,7 +1195,9 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
+      <c r="A9" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="B9" s="17"/>
       <c r="C9" s="8" t="s">
         <v>20</v>
@@ -1159,7 +1210,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
+      <c r="A10" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" s="17"/>
       <c r="C10" s="8" t="s">
         <v>22</v>
@@ -1172,7 +1225,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
+      <c r="A11" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="B11" s="17"/>
       <c r="C11" s="8" t="s">
         <v>24</v>
@@ -1199,7 +1254,7 @@
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="14"/>
@@ -1214,7 +1269,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
+      <c r="A15" s="38" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" s="17"/>
       <c r="C15" s="8" t="s">
         <v>22</v>
@@ -1227,7 +1284,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+      <c r="A16" s="38" t="s">
+        <v>27</v>
+      </c>
       <c r="B16" s="17"/>
       <c r="C16" s="8" t="s">
         <v>24</v>
@@ -1240,7 +1299,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
+      <c r="A17" s="38" t="s">
+        <v>27</v>
+      </c>
       <c r="B17" s="17"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -1253,8 +1314,8 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="3"/>
@@ -1262,8 +1323,10 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
         <v>20</v>
@@ -1275,8 +1338,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
         <v>22</v>
@@ -1289,7 +1354,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
+      <c r="A22" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
         <v>24</v>
@@ -1384,7 +1451,7 @@
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="14"/>
@@ -1394,25 +1461,29 @@
       <c r="D31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
+      <c r="A32" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="B32" s="17"/>
       <c r="C32" s="8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
+      <c r="A33" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="B33" s="17"/>
       <c r="C33" s="8" t="s">
         <v>24</v>
@@ -1420,7 +1491,7 @@
       <c r="D33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="32" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1429,17 +1500,17 @@
       <c r="B34" s="17"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="33"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="34"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1449,12 +1520,14 @@
       <c r="D36" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
+      <c r="A37" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
       </c>
@@ -1462,12 +1535,14 @@
       <c r="D37" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
+      <c r="A38" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="B38" s="8" t="s">
         <v>40</v>
       </c>
@@ -1475,12 +1550,14 @@
       <c r="D38" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
+      <c r="A39" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="B39" s="8" t="s">
         <v>42</v>
       </c>
@@ -1488,12 +1565,14 @@
       <c r="D39" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
+      <c r="A40" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="B40" s="8" t="s">
         <v>44</v>
       </c>
@@ -1501,12 +1580,14 @@
       <c r="D40" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
+      <c r="A41" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="B41" s="8" t="s">
         <v>46</v>
       </c>
@@ -1514,7 +1595,7 @@
       <c r="D41" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="32" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1522,11 +1603,11 @@
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="35"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="34"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1536,12 +1617,14 @@
       <c r="D43" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
+      <c r="A44" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -1549,12 +1632,14 @@
       <c r="D44" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6"/>
+      <c r="A45" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="B45" s="8" t="s">
         <v>40</v>
       </c>
@@ -1562,12 +1647,14 @@
       <c r="D45" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="6"/>
+      <c r="A46" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="B46" s="8" t="s">
         <v>42</v>
       </c>
@@ -1575,12 +1662,14 @@
       <c r="D46" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="6"/>
+      <c r="A47" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="B47" s="8" t="s">
         <v>44</v>
       </c>
@@ -1588,12 +1677,14 @@
       <c r="D47" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="26"/>
+      <c r="A48" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="B48" s="8" t="s">
         <v>46</v>
       </c>
@@ -1601,11 +1692,12 @@
       <c r="D48" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="33" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E51"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
     <hyperlink ref="C16" r:id="rId2" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
@@ -1613,5 +1705,6 @@
     <hyperlink ref="C33" r:id="rId4" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/ProgrammesUtilisesActuellement/ProgrammesUtilisesActuellementV2.xlsx
+++ b/ProgrammesUtilisesActuellement/ProgrammesUtilisesActuellementV2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proget2017v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1695182\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12010" windowHeight="4330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Marina" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marina!$A$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marina!$A$1:$E$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="58">
   <si>
     <t>Nom de Program</t>
   </si>
@@ -75,9 +75,6 @@
     <t>upload\admin\model\customer\</t>
   </si>
   <si>
-    <t>Liew</t>
-  </si>
-  <si>
     <t>Nom de Page</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>upload/catalog/view/template/extension/module/</t>
   </si>
   <si>
-    <t>upload/catalog/controller/common</t>
-  </si>
-  <si>
     <t>Boutique</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>contactes.php</t>
   </si>
   <si>
-    <t>upload/catalog/view/theme/ArtsBoutiqueLvovna/template/common/</t>
-  </si>
-  <si>
     <t>Utilisé/Creé Par</t>
   </si>
   <si>
@@ -184,12 +175,39 @@
   </si>
   <si>
     <t>MenuModule</t>
+  </si>
+  <si>
+    <t>upload/catalog/controller/artboutique</t>
+  </si>
+  <si>
+    <t>upload/catalog/view/theme/ArtsBoutiqueLvovna/template/artboutique</t>
+  </si>
+  <si>
+    <t>Lieu</t>
+  </si>
+  <si>
+    <t>selectionartistes.php</t>
+  </si>
+  <si>
+    <t>selectionoeuvres.php</t>
+  </si>
+  <si>
+    <t>Isabel Gallo</t>
+  </si>
+  <si>
+    <t>Selection Artistes</t>
+  </si>
+  <si>
+    <t>Selection Œuvres</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/---------/extension/module/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -606,11 +624,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -651,9 +761,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -971,15 +1092,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1012,7 +1133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1023,7 +1144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1034,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1086,625 +1207,942 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E12" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="E17" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="E18" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="35" t="s">
-        <v>31</v>
+      <c r="E19" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E24" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35" t="s">
+      <c r="D25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="38" t="s">
-        <v>36</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="8" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="38" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="49"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="50"/>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="32" t="s">
+      <c r="E44" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="48"/>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="31"/>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="C50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="48"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="33"/>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="34"/>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="39" t="s">
+      <c r="B64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="31" t="s">
+      <c r="E65" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="25" t="s">
+      <c r="C66" s="17"/>
+      <c r="D66" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E66" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="25" t="s">
+      <c r="C67" s="17"/>
+      <c r="D67" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E67" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="25" t="s">
+      <c r="C68" s="17"/>
+      <c r="D68" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E68" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="25" t="s">
+      <c r="C69" s="17"/>
+      <c r="D69" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="34"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
+      <c r="E69" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:E51"/>
+  <autoFilter ref="A1:E72">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Menu"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
-    <hyperlink ref="C16" r:id="rId2" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
-    <hyperlink ref="C22" r:id="rId3" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
-    <hyperlink ref="C33" r:id="rId4" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C19" r:id="rId2" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C26" r:id="rId3" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C52" r:id="rId4" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C44" r:id="rId5" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C45" r:id="rId6" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C46" r:id="rId7" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C47" r:id="rId8" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
 </worksheet>
 </file>